--- a/ota-bom/resources/domains.xlsx
+++ b/ota-bom/resources/domains.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Work\OfferingManagement\UpgradeTool\ota\ota-bom\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALAINRobert\Documents\Dvlpt\support\onprem\advisor\odm-transformation-advisor\ota-bom\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4B5EF-1C54-406D-A296-E1F95EBA19F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11784" windowHeight="3672" tabRatio="310"/>
+    <workbookView xWindow="3200" yWindow="3280" windowWidth="22310" windowHeight="12250" tabRatio="310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRM Types" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -123,12 +124,21 @@
   </si>
   <si>
     <t>Variable Set</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>return "dsm.Operation";</t>
+  </si>
+  <si>
+    <t>Operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,22 +475,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.08984375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -513,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -524,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -535,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -546,7 +556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -557,7 +567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -568,7 +578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -579,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -590,7 +600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -601,7 +611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -610,6 +620,17 @@
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
